--- a/TK/thongKeHuanLuyen.xlsx
+++ b/TK/thongKeHuanLuyen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\ky1_2122\XL tín hiệu số\CK\TK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720969C0-442B-48E8-A502-CF50F0225D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B80A2F-BAD5-44B5-9E02-B9CABCBF8E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="622" xr2:uid="{8A0C4B13-D321-42AC-9D1D-8AEB5029EB76}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="622" activeTab="3" xr2:uid="{8A0C4B13-D321-42AC-9D1D-8AEB5029EB76}"/>
   </bookViews>
   <sheets>
     <sheet name="01MDA" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3596" uniqueCount="11">
   <si>
     <t>STE</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Thresh</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -103,10 +109,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F6D3C5-97A1-4A55-9E07-2325A699C218}">
   <dimension ref="A1:K557"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -440,12 +446,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -767,7 +773,7 @@
         <f xml:space="preserve"> AVERAGE(E2,E4,E6,E8,E10,E12)</f>
         <v>2.5663906142167013E-4</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>3.1391174292583499E-6</v>
       </c>
       <c r="K15">
@@ -6770,7 +6776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F811CF6-3847-43D8-916F-CCE6BE5BB2F7}">
   <dimension ref="A1:K717"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -6788,12 +6794,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -14898,12 +14904,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -25397,8 +25403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D9D64-E9AE-4B24-81A1-9A111E125227}">
   <dimension ref="A1:K1276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -25414,13 +25420,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="1"/>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -25740,7 +25752,7 @@
       <c r="E15">
         <v>2.48467661986169E-4</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>2.2389790130106202E-6</v>
       </c>
       <c r="K15">
